--- a/results/comparaison/WM/azimuth/mean_normalized.xlsx
+++ b/results/comparaison/WM/azimuth/mean_normalized.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,47 +966,92 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CT2">
+        <v>1</v>
+      </c>
+      <c r="CU2">
+        <v>1</v>
+      </c>
+      <c r="CV2">
+        <v>1</v>
+      </c>
+      <c r="CW2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>4.811178064354265</v>
       </c>
+      <c r="C3">
+        <v>0.9571708720192496</v>
+      </c>
+      <c r="D3">
+        <v>2.064478320548009</v>
+      </c>
       <c r="E3">
+        <v>0.9028018576849557</v>
+      </c>
+      <c r="F3">
         <v>0.9664130625888121</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9764030732276699</v>
+      </c>
+      <c r="H3">
         <v>0.7534349601091962</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>1.323748726837799</v>
+      </c>
+      <c r="J3">
         <v>0.8816870795907683</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.054757435023251</v>
       </c>
-      <c r="K3">
-        <v>3.058577612110264</v>
+      <c r="L3">
+        <v>1.235566061265652</v>
       </c>
       <c r="M3">
         <v>0.6692006583233159</v>
       </c>
       <c r="N3">
+        <v>3.058577612110264</v>
+      </c>
+      <c r="O3">
+        <v>1.060965780304721</v>
+      </c>
+      <c r="P3">
         <v>0.8495491481806086</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>3.970164972248424</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.8056766118230945</v>
       </c>
       <c r="S3">
-        <v>1.951194208716021</v>
+        <v>1.456151324081653</v>
+      </c>
+      <c r="T3">
+        <v>1.38909221735467</v>
+      </c>
+      <c r="U3">
+        <v>0.6953637161167966</v>
+      </c>
+      <c r="V3">
+        <v>0.8214526824438311</v>
       </c>
       <c r="W3">
         <v>1.013457341129957</v>
       </c>
+      <c r="X3">
+        <v>0.6674573848925567</v>
+      </c>
       <c r="Y3">
         <v>1.325763413573395</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>0.8894220221463643</v>
       </c>
       <c r="AA3">
-        <v>1.974354736583745</v>
+        <v>2.987332926010844</v>
       </c>
       <c r="AB3">
-        <v>0.9125633197193969</v>
+        <v>1.109146287898352</v>
+      </c>
+      <c r="AC3">
+        <v>0.9081727763429559</v>
+      </c>
+      <c r="AD3">
+        <v>0.8478195597891304</v>
+      </c>
+      <c r="AF3">
+        <v>1.49039447679983</v>
+      </c>
+      <c r="AG3">
+        <v>1.020259102935674</v>
+      </c>
+      <c r="AH3">
+        <v>2.663979339745127</v>
+      </c>
+      <c r="AI3">
+        <v>1.14048083454541</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9672009623015307</v>
+      </c>
+      <c r="AL3">
+        <v>0.9793398794680637</v>
+      </c>
+      <c r="AM3">
+        <v>0.9471373948196485</v>
+      </c>
+      <c r="AN3">
+        <v>1.071779331310622</v>
+      </c>
+      <c r="AO3">
+        <v>0.9643500748336353</v>
+      </c>
+      <c r="AP3">
+        <v>2.070140346192244</v>
       </c>
       <c r="AQ3">
-        <v>0.9876090398846464</v>
+        <v>0.9647105327156429</v>
       </c>
       <c r="AR3">
-        <v>0.8892435294461986</v>
+        <v>1.11231755115597</v>
       </c>
       <c r="AS3">
-        <v>0.9629665330668206</v>
+        <v>1.156828000476845</v>
       </c>
       <c r="AT3">
-        <v>0.8478195597891304</v>
+        <v>1.13327487201671</v>
       </c>
       <c r="AU3">
-        <v>1.49039447679983</v>
+        <v>2.053370677734291</v>
+      </c>
+      <c r="AV3">
+        <v>1.02737792127044</v>
       </c>
       <c r="AX3">
-        <v>1.14048083454541</v>
+        <v>0.9738270269162116</v>
+      </c>
+      <c r="AY3">
+        <v>0.9725267191275043</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9793980366873754</v>
+      </c>
+      <c r="BA3">
+        <v>0.9195696252602441</v>
       </c>
       <c r="BB3">
-        <v>1.016733452145932</v>
+        <v>0.9048590727509905</v>
       </c>
       <c r="BC3">
-        <v>1.074031571648196</v>
+        <v>1.013805020899874</v>
+      </c>
+      <c r="BD3">
+        <v>0.9518469215776409</v>
+      </c>
+      <c r="BE3">
+        <v>1.112889108830187</v>
       </c>
       <c r="BF3">
-        <v>0.7178455755756762</v>
+        <v>0.8163459412554472</v>
+      </c>
+      <c r="BG3">
+        <v>0.9936299200762074</v>
+      </c>
+      <c r="BH3">
+        <v>1.088946521766354</v>
       </c>
       <c r="BI3">
-        <v>0.8508615340216844</v>
+        <v>1.078521662595091</v>
       </c>
       <c r="BJ3">
-        <v>0.9465046509718895</v>
+        <v>0.9612846582055362</v>
       </c>
       <c r="BK3">
-        <v>0.8733379945544626</v>
+        <v>0.8738961232917259</v>
+      </c>
+      <c r="BM3">
+        <v>0.9568067422850665</v>
+      </c>
+      <c r="BN3">
+        <v>1.020316224349521</v>
       </c>
       <c r="BO3">
-        <v>0.9224731737531253</v>
+        <v>0.8845885655566446</v>
       </c>
       <c r="BP3">
-        <v>1.038519236960696</v>
+        <v>1.60899448418073</v>
       </c>
       <c r="BQ3">
-        <v>0.9702707256400145</v>
+        <v>1.08066679082114</v>
       </c>
       <c r="BR3">
-        <v>0.9732655668282105</v>
+        <v>0.9982375882637279</v>
       </c>
       <c r="BS3">
-        <v>0.9664021595491509</v>
+        <v>1.45776239631035</v>
+      </c>
+      <c r="BT3">
+        <v>1.036151050451266</v>
       </c>
       <c r="BU3">
-        <v>2.275604587216114</v>
+        <v>1.059217619306182</v>
       </c>
       <c r="BV3">
-        <v>0.9603728038714551</v>
+        <v>1.045796362631797</v>
+      </c>
+      <c r="BW3">
+        <v>1.829520968163495</v>
+      </c>
+      <c r="BX3">
+        <v>0.9891917965156589</v>
+      </c>
+      <c r="BY3">
+        <v>0.9574183911094807</v>
+      </c>
+      <c r="BZ3">
+        <v>1.735454740612878</v>
+      </c>
+      <c r="CA3">
+        <v>0.9382653034462103</v>
+      </c>
+      <c r="CB3">
+        <v>1.101388060417954</v>
+      </c>
+      <c r="CC3">
+        <v>1.320753265292363</v>
+      </c>
+      <c r="CD3">
+        <v>0.9476578885855497</v>
+      </c>
+      <c r="CE3">
+        <v>1.500453917206284</v>
+      </c>
+      <c r="CF3">
+        <v>0.4499505204849654</v>
       </c>
       <c r="CG3">
-        <v>0.9431279073473796</v>
+        <v>0.68494547179892</v>
+      </c>
+      <c r="CH3">
+        <v>1.546369653141788</v>
+      </c>
+      <c r="CI3">
+        <v>1.089622094976697</v>
       </c>
       <c r="CK3">
-        <v>0.9752984915150229</v>
+        <v>1.31235263976523</v>
+      </c>
+      <c r="CL3">
+        <v>1.356792223499695</v>
+      </c>
+      <c r="CM3">
+        <v>0.6293748958478319</v>
       </c>
       <c r="CN3">
-        <v>0.8525896210938523</v>
+        <v>0.9338096981248085</v>
+      </c>
+      <c r="CO3">
+        <v>0.9465307417415555</v>
+      </c>
+      <c r="CP3">
+        <v>1.902056791051653</v>
+      </c>
+      <c r="CQ3">
+        <v>0.4597483941189886</v>
+      </c>
+      <c r="CR3">
+        <v>1.63919251685914</v>
+      </c>
+      <c r="CS3">
+        <v>0.9545379639427078</v>
+      </c>
+      <c r="CT3">
+        <v>1.327638249671365</v>
+      </c>
+      <c r="CU3">
+        <v>1.256179791433749</v>
+      </c>
+      <c r="CV3">
+        <v>1.137499820062259</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>4.864631273349503</v>
       </c>
+      <c r="C4">
+        <v>1.053221420714551</v>
+      </c>
+      <c r="D4">
+        <v>1.922797766414526</v>
+      </c>
       <c r="E4">
+        <v>0.8375546780341029</v>
+      </c>
+      <c r="F4">
         <v>0.873120265443508</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.835749033282137</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>1.190408283267326</v>
+      </c>
+      <c r="J4">
         <v>1.055440987691428</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.778315127872565</v>
       </c>
-      <c r="K4">
-        <v>2.582895108857861</v>
+      <c r="L4">
+        <v>1.247447438055139</v>
       </c>
       <c r="M4">
         <v>0.6638836562915655</v>
       </c>
       <c r="N4">
+        <v>2.582895108857861</v>
+      </c>
+      <c r="O4">
+        <v>1.077991048663369</v>
+      </c>
+      <c r="P4">
         <v>0.9991721184541246</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>3.541805429738077</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.7991608382866084</v>
       </c>
       <c r="S4">
-        <v>1.909478920410919</v>
+        <v>1.15417997699054</v>
+      </c>
+      <c r="T4">
+        <v>1.447869467989712</v>
+      </c>
+      <c r="U4">
+        <v>0.7607850146820817</v>
+      </c>
+      <c r="V4">
+        <v>0.9037525475312175</v>
       </c>
       <c r="W4">
         <v>1.147915941227045</v>
       </c>
+      <c r="X4">
+        <v>0.76806232287323</v>
+      </c>
       <c r="Y4">
         <v>1.480977213336848</v>
       </c>
       <c r="Z4">
         <v>1.043396697902577</v>
       </c>
+      <c r="AA4">
+        <v>2.954718317124681</v>
+      </c>
       <c r="AB4">
-        <v>1.043047139050309</v>
+        <v>1.315844482896288</v>
+      </c>
+      <c r="AC4">
+        <v>0.9954708370605045</v>
+      </c>
+      <c r="AD4">
+        <v>1.149111648001263</v>
+      </c>
+      <c r="AF4">
+        <v>2.551608627316916</v>
+      </c>
+      <c r="AG4">
+        <v>1.054673474233311</v>
       </c>
       <c r="AH4">
+        <v>3.959721261293706</v>
+      </c>
+      <c r="AI4">
+        <v>1.957814922296715</v>
+      </c>
+      <c r="AJ4">
+        <v>1.380980831532246</v>
+      </c>
+      <c r="AL4">
+        <v>1.001263975602207</v>
+      </c>
+      <c r="AM4">
+        <v>1.020286212682494</v>
+      </c>
+      <c r="AN4">
         <v>1.130511651102555</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>1.049600500666783</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>2.754787708189375</v>
+      </c>
+      <c r="AQ4">
+        <v>1.033816720758913</v>
+      </c>
+      <c r="AR4">
         <v>1.674620336713266</v>
       </c>
-      <c r="AM4">
-        <v>1.11928913834307</v>
-      </c>
-      <c r="AQ4">
-        <v>1.072564843600144</v>
-      </c>
-      <c r="AR4">
-        <v>0.9105780697302426</v>
-      </c>
-      <c r="AS4">
-        <v>0.9956735824173044</v>
-      </c>
       <c r="AT4">
-        <v>1.149111648001263</v>
+        <v>1.402268586057708</v>
       </c>
       <c r="AU4">
-        <v>2.551608627316916</v>
-      </c>
-      <c r="AX4">
-        <v>1.957814922296715</v>
+        <v>2.343507173678471</v>
+      </c>
+      <c r="AV4">
+        <v>1.094602783097675</v>
+      </c>
+      <c r="AZ4">
+        <v>0.9346889290131092</v>
+      </c>
+      <c r="BA4">
+        <v>0.9352346539971693</v>
       </c>
       <c r="BB4">
-        <v>0.9915352896733379</v>
+        <v>0.8398431825008817</v>
       </c>
       <c r="BC4">
-        <v>1.058360493842902</v>
+        <v>0.9654394412760404</v>
+      </c>
+      <c r="BD4">
+        <v>0.9280829144384787</v>
+      </c>
+      <c r="BE4">
+        <v>1.080592213976322</v>
+      </c>
+      <c r="BF4">
+        <v>0.8086402273358603</v>
+      </c>
+      <c r="BG4">
+        <v>0.9258585009784909</v>
+      </c>
+      <c r="BH4">
+        <v>1.131742604670292</v>
       </c>
       <c r="BI4">
-        <v>0.789812434536671</v>
+        <v>1.020095657794044</v>
       </c>
       <c r="BJ4">
-        <v>0.9058848689278879</v>
+        <v>0.9329354546774049</v>
       </c>
       <c r="BK4">
-        <v>0.8253974372074678</v>
+        <v>0.8790080197822585</v>
+      </c>
+      <c r="BL4">
+        <v>0.8740889207892937</v>
+      </c>
+      <c r="BM4">
+        <v>0.9078198271731048</v>
+      </c>
+      <c r="BN4">
+        <v>0.9679769742534502</v>
+      </c>
+      <c r="BO4">
+        <v>0.8488070779174594</v>
       </c>
       <c r="BP4">
-        <v>0.993762326498343</v>
-      </c>
-      <c r="BS4">
-        <v>0.9136152692997308</v>
+        <v>1.549221168235602</v>
+      </c>
+      <c r="BQ4">
+        <v>1.057476892438943</v>
+      </c>
+      <c r="BR4">
+        <v>0.9540254366937529</v>
+      </c>
+      <c r="BT4">
+        <v>0.9831604989758576</v>
       </c>
       <c r="BU4">
-        <v>2.097074727622675</v>
+        <v>1.048946781867188</v>
       </c>
       <c r="BV4">
-        <v>0.9020049429687852</v>
+        <v>1.009333974304143</v>
+      </c>
+      <c r="BW4">
+        <v>1.66283095223115</v>
+      </c>
+      <c r="BX4">
+        <v>0.9369151844036901</v>
+      </c>
+      <c r="BY4">
+        <v>0.8643387757106741</v>
+      </c>
+      <c r="BZ4">
+        <v>1.572031967756917</v>
+      </c>
+      <c r="CA4">
+        <v>0.9182580249447032</v>
+      </c>
+      <c r="CB4">
+        <v>1.099524314681332</v>
+      </c>
+      <c r="CC4">
+        <v>1.159402903936678</v>
+      </c>
+      <c r="CD4">
+        <v>0.8687264934792733</v>
+      </c>
+      <c r="CE4">
+        <v>1.395338115652162</v>
       </c>
       <c r="CF4">
-        <v>0.37779495421496</v>
+        <v>0.4917624246924917</v>
+      </c>
+      <c r="CG4">
+        <v>0.6404582307761582</v>
       </c>
       <c r="CH4">
-        <v>0.9104855133996917</v>
+        <v>1.532529784355508</v>
+      </c>
+      <c r="CI4">
+        <v>1.066324940018541</v>
       </c>
       <c r="CK4">
-        <v>0.9163327497971047</v>
+        <v>1.065426942981399</v>
+      </c>
+      <c r="CL4">
+        <v>0.9931000548984739</v>
+      </c>
+      <c r="CM4">
+        <v>0.6254724701539074</v>
       </c>
       <c r="CN4">
-        <v>0.87856409459096</v>
+        <v>0.6414787545474087</v>
+      </c>
+      <c r="CO4">
+        <v>0.7798219569234508</v>
+      </c>
+      <c r="CP4">
+        <v>2.0403309787582</v>
+      </c>
+      <c r="CQ4">
+        <v>0.4878986256532078</v>
+      </c>
+      <c r="CR4">
+        <v>1.253959584161689</v>
+      </c>
+      <c r="CS4">
+        <v>0.8762645277941349</v>
+      </c>
+      <c r="CT4">
+        <v>0.9276742679786165</v>
+      </c>
+      <c r="CU4">
+        <v>0.4822627181137275</v>
+      </c>
+      <c r="CV4">
+        <v>1.019016145574511</v>
+      </c>
+      <c r="CW4">
+        <v>1.148324733430134</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.901522728908986</v>
       </c>
+      <c r="C5">
+        <v>1.12133846463715</v>
+      </c>
       <c r="D5">
+        <v>2.114084090748438</v>
+      </c>
+      <c r="E5">
         <v>0.8576564455122053</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.8297978819141185</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.8400806775229589</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>1.351285472914223</v>
+      </c>
+      <c r="J5">
         <v>0.8579515564951951</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.718973259086472</v>
       </c>
-      <c r="K5">
-        <v>2.473274199585472</v>
+      <c r="L5">
+        <v>1.379275806943778</v>
       </c>
       <c r="M5">
         <v>0.9432147854473081</v>
       </c>
       <c r="N5">
+        <v>2.473274199585472</v>
+      </c>
+      <c r="O5">
+        <v>1.16436783280804</v>
+      </c>
+      <c r="P5">
         <v>0.9116940541806414</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>3.54986019572018</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.7507442508678833</v>
       </c>
       <c r="S5">
-        <v>2.095151389082802</v>
+        <v>1.544395235972206</v>
+      </c>
+      <c r="T5">
+        <v>1.281093206429012</v>
+      </c>
+      <c r="U5">
+        <v>0.7809472667838264</v>
+      </c>
+      <c r="V5">
+        <v>0.9591151290376332</v>
       </c>
       <c r="W5">
         <v>1.096899920611793</v>
       </c>
+      <c r="X5">
+        <v>0.7017411801912821</v>
+      </c>
       <c r="Y5">
         <v>1.182670985960308</v>
       </c>
       <c r="Z5">
         <v>1.080674667040373</v>
       </c>
+      <c r="AA5">
+        <v>3.033462924513819</v>
+      </c>
       <c r="AB5">
-        <v>0.9795888170914246</v>
+        <v>1.113072610417345</v>
+      </c>
+      <c r="AC5">
+        <v>0.9747692049558749</v>
+      </c>
+      <c r="AD5">
+        <v>0.6903441106246017</v>
+      </c>
+      <c r="AF5">
+        <v>1.228385743302863</v>
+      </c>
+      <c r="AG5">
+        <v>1.08881012255063</v>
+      </c>
+      <c r="AH5">
+        <v>2.11136178074636</v>
+      </c>
+      <c r="AI5">
+        <v>1.173512088077253</v>
+      </c>
+      <c r="AJ5">
+        <v>0.9984531370891846</v>
+      </c>
+      <c r="AL5">
+        <v>1.009749851896361</v>
+      </c>
+      <c r="AM5">
+        <v>1.02047573439744</v>
+      </c>
+      <c r="AN5">
+        <v>1.110888093123615</v>
+      </c>
+      <c r="AO5">
+        <v>0.9988135467617486</v>
+      </c>
+      <c r="AP5">
+        <v>1.542492059646621</v>
       </c>
       <c r="AQ5">
-        <v>1.018805771541742</v>
+        <v>1.00194733596074</v>
       </c>
       <c r="AR5">
-        <v>0.967249522629582</v>
+        <v>1.193600327938818</v>
       </c>
       <c r="AS5">
-        <v>0.9622941893961312</v>
+        <v>1.244800767548254</v>
       </c>
       <c r="AT5">
-        <v>0.6903441106246017</v>
+        <v>1.246073484851018</v>
       </c>
       <c r="AU5">
-        <v>1.228385743302863</v>
-      </c>
-      <c r="AX5">
-        <v>1.173512088077253</v>
+        <v>1.830261179812635</v>
+      </c>
+      <c r="AV5">
+        <v>1.015676145086503</v>
+      </c>
+      <c r="AY5">
+        <v>1.00272460706495</v>
+      </c>
+      <c r="AZ5">
+        <v>0.9664485939735834</v>
+      </c>
+      <c r="BA5">
+        <v>1.026517448205941</v>
       </c>
       <c r="BB5">
-        <v>1.043410716642748</v>
+        <v>1.005733849101363</v>
       </c>
       <c r="BC5">
-        <v>1.071022199526704</v>
+        <v>0.9933123817350576</v>
+      </c>
+      <c r="BD5">
+        <v>0.9554784713487143</v>
       </c>
       <c r="BE5">
-        <v>1.019057053579883</v>
+        <v>1.139063303796971</v>
+      </c>
+      <c r="BF5">
+        <v>0.9067646274496244</v>
+      </c>
+      <c r="BG5">
+        <v>0.9830394467699435</v>
+      </c>
+      <c r="BH5">
+        <v>1.334358242798147</v>
       </c>
       <c r="BI5">
-        <v>0.9623177357288424</v>
+        <v>1.037157182210481</v>
+      </c>
+      <c r="BJ5">
+        <v>0.9781111114787183</v>
       </c>
       <c r="BK5">
-        <v>1.007003002763272</v>
+        <v>1.007006586185533</v>
+      </c>
+      <c r="BM5">
+        <v>0.9434011565481323</v>
+      </c>
+      <c r="BN5">
+        <v>1.058637417214859</v>
+      </c>
+      <c r="BO5">
+        <v>0.9613234007488027</v>
       </c>
       <c r="BP5">
-        <v>1.042919928098572</v>
-      </c>
-      <c r="BS5">
-        <v>0.9542859928890892</v>
+        <v>1.732313424383571</v>
+      </c>
+      <c r="BQ5">
+        <v>1.053271918543965</v>
+      </c>
+      <c r="BR5">
+        <v>0.986205098935524</v>
+      </c>
+      <c r="BT5">
+        <v>1.075987890801614</v>
       </c>
       <c r="BU5">
-        <v>1.975283394691105</v>
+        <v>1.091655475292483</v>
       </c>
       <c r="BV5">
-        <v>0.9625335748981758</v>
+        <v>1.034070886185008</v>
+      </c>
+      <c r="BW5">
+        <v>1.829706352062777</v>
+      </c>
+      <c r="BX5">
+        <v>1.001466277885583</v>
+      </c>
+      <c r="BY5">
+        <v>0.9040012052535643</v>
       </c>
       <c r="BZ5">
-        <v>4.879866823760619</v>
+        <v>1.505003691544332</v>
+      </c>
+      <c r="CA5">
+        <v>0.9524361553454587</v>
+      </c>
+      <c r="CB5">
+        <v>0.8655337944074618</v>
       </c>
       <c r="CC5">
-        <v>1.032116555109699</v>
+        <v>1.338367414428454</v>
+      </c>
+      <c r="CD5">
+        <v>0.8125059982207126</v>
+      </c>
+      <c r="CE5">
+        <v>1.584811335050772</v>
+      </c>
+      <c r="CF5">
+        <v>0.4329196573332989</v>
+      </c>
+      <c r="CG5">
+        <v>0.8162319852156239</v>
       </c>
       <c r="CH5">
-        <v>0.9509712739176569</v>
+        <v>1.606748028297777</v>
+      </c>
+      <c r="CI5">
+        <v>1.224716921624116</v>
       </c>
       <c r="CK5">
-        <v>0.9635340958286787</v>
+        <v>1.270445841888209</v>
+      </c>
+      <c r="CL5">
+        <v>1.491247020568752</v>
+      </c>
+      <c r="CM5">
+        <v>0.6272356742342469</v>
+      </c>
+      <c r="CN5">
+        <v>0.7864160337097499</v>
+      </c>
+      <c r="CO5">
+        <v>0.8404429986667246</v>
       </c>
       <c r="CP5">
-        <v>1.098017300858095</v>
+        <v>2.289262591949987</v>
+      </c>
+      <c r="CQ5">
+        <v>0.3895570226218089</v>
+      </c>
+      <c r="CR5">
+        <v>1.746385063693629</v>
       </c>
       <c r="CS5">
-        <v>1.746385063693629</v>
+        <v>1.042454401417551</v>
+      </c>
+      <c r="CT5">
+        <v>1.247802929522995</v>
+      </c>
+      <c r="CU5">
+        <v>1.233236089647509</v>
+      </c>
+      <c r="CV5">
+        <v>1.112178541160181</v>
+      </c>
+      <c r="CW5">
+        <v>1.236603387513016</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2.662452328714918</v>
       </c>
+      <c r="C6">
+        <v>1.099369928127567</v>
+      </c>
+      <c r="D6">
+        <v>1.735231631311874</v>
+      </c>
       <c r="E6">
+        <v>0.9105661535141039</v>
+      </c>
+      <c r="F6">
         <v>0.5792825438560398</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.8959286639642028</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>1.271264415970779</v>
+      </c>
+      <c r="J6">
         <v>1.028068330847333</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.47052425161113</v>
       </c>
-      <c r="K6">
-        <v>2.308994786565205</v>
+      <c r="L6">
+        <v>1.287557766642955</v>
       </c>
       <c r="M6">
         <v>0.7908804805654204</v>
       </c>
       <c r="N6">
+        <v>2.308994786565205</v>
+      </c>
+      <c r="O6">
+        <v>1.168586698749602</v>
+      </c>
+      <c r="P6">
         <v>1.009559518656797</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>3.40049274987603</v>
+      </c>
+      <c r="R6">
         <v>0.5873555055072576</v>
       </c>
       <c r="S6">
-        <v>1.863710384098123</v>
+        <v>1.508770040841581</v>
+      </c>
+      <c r="T6">
+        <v>1.470934306875541</v>
+      </c>
+      <c r="U6">
+        <v>0.8242847986224705</v>
+      </c>
+      <c r="V6">
+        <v>0.9915606722862977</v>
       </c>
       <c r="W6">
         <v>1.016187690339316</v>
       </c>
+      <c r="X6">
+        <v>0.8427138032012478</v>
+      </c>
       <c r="Y6">
         <v>1.433548532420636</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>1.003317423263127</v>
       </c>
       <c r="AA6">
-        <v>2.405897959426721</v>
+        <v>2.94823273966101</v>
       </c>
       <c r="AB6">
-        <v>0.9947992936042046</v>
+        <v>1.125710519018444</v>
+      </c>
+      <c r="AC6">
+        <v>0.9274822782190111</v>
+      </c>
+      <c r="AD6">
+        <v>0.5405625991274288</v>
+      </c>
+      <c r="AF6">
+        <v>1.337080624167915</v>
+      </c>
+      <c r="AG6">
+        <v>0.9853294660337903</v>
+      </c>
+      <c r="AH6">
+        <v>1.390662028426877</v>
+      </c>
+      <c r="AI6">
+        <v>1.446738174961635</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9901915848901909</v>
+      </c>
+      <c r="AK6">
+        <v>1.132095988961259</v>
+      </c>
+      <c r="AL6">
+        <v>0.9978536952247186</v>
+      </c>
+      <c r="AM6">
+        <v>1.048550982060263</v>
+      </c>
+      <c r="AN6">
+        <v>1.069611961690583</v>
+      </c>
+      <c r="AO6">
+        <v>0.9890115538147818</v>
+      </c>
+      <c r="AP6">
+        <v>3.49120241625805</v>
       </c>
       <c r="AQ6">
-        <v>1.038182078074301</v>
+        <v>1.116802863041487</v>
       </c>
       <c r="AR6">
-        <v>0.8718655990340921</v>
+        <v>1.146567313316851</v>
       </c>
       <c r="AS6">
-        <v>1.011140390314899</v>
+        <v>1.137470313876896</v>
       </c>
       <c r="AT6">
-        <v>0.5405625991274288</v>
+        <v>1.08273861973598</v>
       </c>
       <c r="AU6">
-        <v>1.337080624167915</v>
+        <v>1.656012711258031</v>
+      </c>
+      <c r="AV6">
+        <v>1.052047830971625</v>
+      </c>
+      <c r="AW6">
+        <v>1.097861135543028</v>
       </c>
       <c r="AX6">
-        <v>1.446738174961635</v>
+        <v>0.9921814142990449</v>
+      </c>
+      <c r="AY6">
+        <v>0.9385401677316951</v>
       </c>
       <c r="AZ6">
-        <v>0.9716789758648067</v>
+        <v>0.8788209001532591</v>
+      </c>
+      <c r="BA6">
+        <v>0.9234346037095676</v>
       </c>
       <c r="BB6">
-        <v>0.9876200585476177</v>
+        <v>0.8620975576360799</v>
+      </c>
+      <c r="BC6">
+        <v>0.895623751322671</v>
+      </c>
+      <c r="BD6">
+        <v>0.8458954033568084</v>
       </c>
       <c r="BE6">
-        <v>0.8828613227087221</v>
+        <v>0.9991885535152889</v>
+      </c>
+      <c r="BF6">
+        <v>0.7655338453349593</v>
+      </c>
+      <c r="BG6">
+        <v>0.8892335693046792</v>
+      </c>
+      <c r="BH6">
+        <v>1.098628461643384</v>
       </c>
       <c r="BI6">
-        <v>0.8187185974816102</v>
+        <v>0.9459685969108323</v>
       </c>
       <c r="BJ6">
-        <v>0.8308290534075623</v>
+        <v>0.8675606170753932</v>
       </c>
       <c r="BK6">
-        <v>0.849200762382732</v>
+        <v>0.853531711001581</v>
+      </c>
+      <c r="BL6">
+        <v>0.908833401508338</v>
+      </c>
+      <c r="BM6">
+        <v>0.8422432022895527</v>
+      </c>
+      <c r="BN6">
+        <v>0.891929736746328</v>
+      </c>
+      <c r="BO6">
+        <v>0.8505813704335244</v>
       </c>
       <c r="BP6">
-        <v>0.939913412811283</v>
+        <v>1.556608251308029</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9452128908687356</v>
       </c>
       <c r="BR6">
-        <v>0.8604485528044693</v>
+        <v>0.8808007785957573</v>
       </c>
       <c r="BS6">
-        <v>0.8630666392206156</v>
+        <v>1.273786938463885</v>
+      </c>
+      <c r="BT6">
+        <v>0.9377136197486083</v>
       </c>
       <c r="BU6">
-        <v>1.778344945197051</v>
+        <v>0.8824236637437993</v>
       </c>
       <c r="BV6">
-        <v>0.905321437400612</v>
+        <v>0.9546760722552109</v>
+      </c>
+      <c r="BW6">
+        <v>1.656192585204861</v>
+      </c>
+      <c r="BX6">
+        <v>0.8838553309676639</v>
+      </c>
+      <c r="BY6">
+        <v>0.7623106560215186</v>
       </c>
       <c r="BZ6">
-        <v>5.414331523059826</v>
+        <v>1.593594688158611</v>
       </c>
       <c r="CA6">
-        <v>1.375438112689876</v>
+        <v>0.8942739516706987</v>
+      </c>
+      <c r="CB6">
+        <v>1.042557617217158</v>
       </c>
       <c r="CC6">
-        <v>1.021147674797944</v>
+        <v>1.212272268250138</v>
+      </c>
+      <c r="CD6">
+        <v>0.6540974309634396</v>
+      </c>
+      <c r="CE6">
+        <v>1.054294132286011</v>
       </c>
       <c r="CF6">
-        <v>0.7755773744419915</v>
+        <v>0.323170814577999</v>
       </c>
       <c r="CG6">
-        <v>0.9660795373141722</v>
+        <v>0.6079271281355796</v>
       </c>
       <c r="CH6">
-        <v>0.9975526793549123</v>
+        <v>1.462378162881053</v>
+      </c>
+      <c r="CI6">
+        <v>1.128934616196425</v>
       </c>
       <c r="CK6">
-        <v>0.8434354930459761</v>
+        <v>0.9557977009725271</v>
+      </c>
+      <c r="CL6">
+        <v>1.046549424556526</v>
+      </c>
+      <c r="CM6">
+        <v>0.5795191866921198</v>
       </c>
       <c r="CN6">
-        <v>0.6044548187485469</v>
+        <v>0.8517722312293273</v>
+      </c>
+      <c r="CO6">
+        <v>0.9008880143304242</v>
       </c>
       <c r="CP6">
-        <v>1.084342020112605</v>
+        <v>1.129960815653035</v>
+      </c>
+      <c r="CQ6">
+        <v>0.7573915768504365</v>
       </c>
       <c r="CR6">
-        <v>1.441367966111805</v>
+        <v>1.794505131941227</v>
       </c>
       <c r="CS6">
-        <v>1.794505131941227</v>
+        <v>0.8509093282745606</v>
+      </c>
+      <c r="CT6">
+        <v>0.9560177238562755</v>
+      </c>
+      <c r="CU6">
+        <v>1.037674094469574</v>
+      </c>
+      <c r="CV6">
+        <v>1.199442098814756</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>7.326892412874447</v>
       </c>
+      <c r="C7">
+        <v>1.27950612995596</v>
+      </c>
+      <c r="D7">
+        <v>1.986511542255187</v>
+      </c>
       <c r="E7">
+        <v>0.934473013723078</v>
+      </c>
+      <c r="F7">
         <v>1.132555839069246</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.8949600206620382</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>1.294988065112815</v>
+      </c>
+      <c r="J7">
         <v>1.3372644536578</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>2.233662704456192</v>
       </c>
-      <c r="K7">
-        <v>3.205833160142196</v>
+      <c r="L7">
+        <v>1.292809629138431</v>
       </c>
       <c r="M7">
         <v>1.002783443273222</v>
       </c>
       <c r="N7">
+        <v>3.205833160142196</v>
+      </c>
+      <c r="O7">
+        <v>1.012714497410219</v>
+      </c>
+      <c r="P7">
         <v>1.007030117077166</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>4.117436731777</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.8575769866657953</v>
       </c>
       <c r="S7">
-        <v>2.21845450347279</v>
+        <v>1.713605174947129</v>
+      </c>
+      <c r="T7">
+        <v>1.865764618764708</v>
+      </c>
+      <c r="U7">
+        <v>0.7726463428150092</v>
+      </c>
+      <c r="V7">
+        <v>0.9598972245415294</v>
       </c>
       <c r="W7">
         <v>1.199208993781814</v>
       </c>
+      <c r="X7">
+        <v>0.6511278177301428</v>
+      </c>
       <c r="Y7">
         <v>2.023995855286896</v>
       </c>
       <c r="Z7">
         <v>1.557036775440872</v>
       </c>
+      <c r="AA7">
+        <v>2.984904113863652</v>
+      </c>
       <c r="AB7">
-        <v>0.8447702504818009</v>
+        <v>0.9986520770101462</v>
+      </c>
+      <c r="AC7">
+        <v>0.9030013091340384</v>
+      </c>
+      <c r="AD7">
+        <v>1.051801420845585</v>
+      </c>
+      <c r="AE7">
+        <v>0.3450602112775794</v>
+      </c>
+      <c r="AF7">
+        <v>3.007298550575294</v>
+      </c>
+      <c r="AG7">
+        <v>1.049014062233954</v>
+      </c>
+      <c r="AH7">
+        <v>3.125282522329575</v>
+      </c>
+      <c r="AI7">
+        <v>1.516693199932032</v>
+      </c>
+      <c r="AJ7">
+        <v>0.987620862795261</v>
       </c>
       <c r="AK7">
+        <v>1.146482487949048</v>
+      </c>
+      <c r="AL7">
+        <v>0.9624309452813515</v>
+      </c>
+      <c r="AM7">
+        <v>0.9903835283706385</v>
+      </c>
+      <c r="AN7">
+        <v>1.050625450218858</v>
+      </c>
+      <c r="AO7">
+        <v>1.00966708475451</v>
+      </c>
+      <c r="AP7">
+        <v>3.64938432450141</v>
+      </c>
+      <c r="AQ7">
+        <v>1.123991740270387</v>
+      </c>
+      <c r="AR7">
         <v>1.086882012689517</v>
       </c>
-      <c r="AQ7">
-        <v>0.8529728132115049</v>
-      </c>
-      <c r="AR7">
-        <v>0.7640154527989599</v>
-      </c>
       <c r="AS7">
-        <v>0.7991713420583999</v>
+        <v>1.232225352698643</v>
       </c>
       <c r="AT7">
-        <v>1.051801420845585</v>
+        <v>1.190903162486729</v>
       </c>
       <c r="AU7">
-        <v>3.007298550575294</v>
+        <v>2.084751264785266</v>
+      </c>
+      <c r="AV7">
+        <v>0.8117066614080146</v>
+      </c>
+      <c r="AW7">
+        <v>1.076205747142607</v>
       </c>
       <c r="AX7">
-        <v>1.516693199932032</v>
+        <v>0.9520422603056422</v>
+      </c>
+      <c r="AY7">
+        <v>0.9404785973606846</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9724716902735399</v>
+      </c>
+      <c r="BA7">
+        <v>0.9756164970619761</v>
       </c>
       <c r="BB7">
-        <v>0.9558037918096338</v>
+        <v>0.8418939974142057</v>
       </c>
       <c r="BC7">
-        <v>1.042348086664659</v>
+        <v>1.007111385841654</v>
+      </c>
+      <c r="BD7">
+        <v>0.9427508804713056</v>
+      </c>
+      <c r="BE7">
+        <v>1.1302763457285</v>
+      </c>
+      <c r="BF7">
+        <v>0.857898994505797</v>
+      </c>
+      <c r="BG7">
+        <v>0.9579495422830393</v>
+      </c>
+      <c r="BH7">
+        <v>1.225342395732524</v>
       </c>
       <c r="BI7">
-        <v>0.8497073351406698</v>
+        <v>1.071608771165415</v>
       </c>
       <c r="BJ7">
-        <v>0.9050580661265057</v>
+        <v>0.9641281703910713</v>
       </c>
       <c r="BK7">
-        <v>0.8470481949730567</v>
+        <v>0.8981149473706463</v>
+      </c>
+      <c r="BL7">
+        <v>0.9411656195433938</v>
+      </c>
+      <c r="BM7">
+        <v>0.9213945130330203</v>
+      </c>
+      <c r="BN7">
+        <v>1.048334671816944</v>
+      </c>
+      <c r="BO7">
+        <v>0.897232853219242</v>
       </c>
       <c r="BP7">
-        <v>1.044805996338507</v>
+        <v>1.617040284676863</v>
+      </c>
+      <c r="BQ7">
+        <v>1.041913145418018</v>
       </c>
       <c r="BR7">
-        <v>0.9581807008485455</v>
-      </c>
-      <c r="BS7">
-        <v>0.9224086893545754</v>
+        <v>0.9343525784872956</v>
+      </c>
+      <c r="BT7">
+        <v>1.053616702500284</v>
       </c>
       <c r="BU7">
-        <v>2.205145739008917</v>
+        <v>1.048105532593559</v>
       </c>
       <c r="BV7">
-        <v>0.9394490048276684</v>
+        <v>1.030818017515924</v>
+      </c>
+      <c r="BW7">
+        <v>1.685185230167357</v>
+      </c>
+      <c r="BX7">
+        <v>0.9716945333716768</v>
+      </c>
+      <c r="BY7">
+        <v>0.7294268797878185</v>
+      </c>
+      <c r="BZ7">
+        <v>1.763726248402274</v>
+      </c>
+      <c r="CA7">
+        <v>0.9333948703735927</v>
+      </c>
+      <c r="CB7">
+        <v>0.9914066653018325</v>
+      </c>
+      <c r="CC7">
+        <v>1.250318800793738</v>
+      </c>
+      <c r="CD7">
+        <v>0.5383269247528557</v>
+      </c>
+      <c r="CE7">
+        <v>1.287131846330985</v>
       </c>
       <c r="CF7">
-        <v>0.5925997949878067</v>
+        <v>0.2779084514780618</v>
       </c>
       <c r="CG7">
-        <v>0.9606106662601418</v>
+        <v>0.6533320255235571</v>
       </c>
       <c r="CH7">
-        <v>0.962487938586337</v>
+        <v>1.587979564079191</v>
+      </c>
+      <c r="CI7">
+        <v>1.035071242182192</v>
+      </c>
+      <c r="CK7">
+        <v>0.7231063108831265</v>
+      </c>
+      <c r="CL7">
+        <v>1.32152013826708</v>
+      </c>
+      <c r="CM7">
+        <v>0.6637902883786444</v>
+      </c>
+      <c r="CN7">
+        <v>0.7369220368581844</v>
+      </c>
+      <c r="CO7">
+        <v>0.922940567269165</v>
+      </c>
+      <c r="CP7">
+        <v>1.057490735015258</v>
+      </c>
+      <c r="CQ7">
+        <v>0.5347725283118082</v>
+      </c>
+      <c r="CR7">
+        <v>1.532980338503988</v>
+      </c>
+      <c r="CS7">
+        <v>1.215724188734027</v>
+      </c>
+      <c r="CT7">
+        <v>1.116802407436962</v>
+      </c>
+      <c r="CU7">
+        <v>1.113685824990256</v>
+      </c>
+      <c r="CV7">
+        <v>1.074569938107601</v>
       </c>
     </row>
   </sheetData>
